--- a/models/CMSB2017_tool_paper/multisite_phos/cpu_time.xlsx
+++ b/models/CMSB2017_tool_paper/multisite_phos/cpu_time.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29480" yWindow="3480" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="44960" yWindow="1180" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,170 +24,331 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
   <si>
     <t>e1</t>
   </si>
   <si>
-    <t>kappa</t>
-  </si>
-  <si>
-    <t>without symmetries</t>
-  </si>
-  <si>
-    <t>with symmetries forward</t>
-  </si>
-  <si>
-    <t>with symmetries backward</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>0.007164</t>
-  </si>
-  <si>
-    <t>0.006645</t>
-  </si>
-  <si>
-    <t>0.010555</t>
-  </si>
-  <si>
     <t>BNGL</t>
   </si>
   <si>
-    <t>with symmetries</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
     <t>e2</t>
   </si>
   <si>
-    <t>0.010567</t>
-  </si>
-  <si>
-    <t>0.013465</t>
-  </si>
-  <si>
-    <t>0.012858</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
     <t>e3</t>
   </si>
   <si>
-    <t>0.038558</t>
-  </si>
-  <si>
-    <t>0.025061</t>
-  </si>
-  <si>
-    <t>0.03074</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
     <t>e4</t>
   </si>
   <si>
-    <t>0.244628</t>
-  </si>
-  <si>
-    <t>0.095642</t>
-  </si>
-  <si>
-    <t>0.110283</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>1.92</t>
-  </si>
-  <si>
     <t>e5</t>
   </si>
   <si>
-    <t>2.00663</t>
-  </si>
-  <si>
-    <t>0.107428</t>
-  </si>
-  <si>
-    <t>0.198528</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>10.12</t>
-  </si>
-  <si>
     <t>e6</t>
   </si>
   <si>
-    <t>32.1281</t>
-  </si>
-  <si>
-    <t>0.263143</t>
-  </si>
-  <si>
-    <t>1.17705</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>59.45</t>
-  </si>
-  <si>
     <t>e7</t>
   </si>
   <si>
-    <t>0.984743</t>
-  </si>
-  <si>
-    <t>12.8846</t>
-  </si>
-  <si>
-    <t>1.72</t>
-  </si>
-  <si>
     <t>e8</t>
   </si>
   <si>
-    <t>6.30818</t>
-  </si>
-  <si>
-    <t>2.89</t>
-  </si>
-  <si>
     <t>e9</t>
   </si>
   <si>
-    <t>56.3898</t>
-  </si>
-  <si>
-    <t>4.42</t>
+    <t xml:space="preserve">model </t>
+  </si>
+  <si>
+    <t>ERODE</t>
+  </si>
+  <si>
+    <t>e10</t>
+  </si>
+  <si>
+    <t>with sym backward</t>
+  </si>
+  <si>
+    <t>with sym forward</t>
+  </si>
+  <si>
+    <t>without sym</t>
+  </si>
+  <si>
+    <t>with sym</t>
+  </si>
+  <si>
+    <t>orginal</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>Kappa</t>
+  </si>
+  <si>
+    <t>CPU time of n_site_gen different rate</t>
+  </si>
+  <si>
+    <t>CPU time of n_site_gen equal rate</t>
+  </si>
+  <si>
+    <t>0.007689 s</t>
+  </si>
+  <si>
+    <t>0.011229 s</t>
+  </si>
+  <si>
+    <t>0.008949 s</t>
+  </si>
+  <si>
+    <t>0.02 s</t>
+  </si>
+  <si>
+    <t>time out (10m)</t>
+  </si>
+  <si>
+    <t>time out</t>
+  </si>
+  <si>
+    <t>8.79 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeout </t>
+  </si>
+  <si>
+    <t>0.012705 s</t>
+  </si>
+  <si>
+    <t>0.011918 s</t>
+  </si>
+  <si>
+    <t>0.014781 s</t>
+  </si>
+  <si>
+    <t>0.05 s</t>
+  </si>
+  <si>
+    <t>0.11 s</t>
+  </si>
+  <si>
+    <t>0.063571 s</t>
+  </si>
+  <si>
+    <t>0.037809 s</t>
+  </si>
+  <si>
+    <t>0.031944 s</t>
+  </si>
+  <si>
+    <t>0.10 s</t>
+  </si>
+  <si>
+    <t>0.30 s</t>
+  </si>
+  <si>
+    <t>0.224742 s</t>
+  </si>
+  <si>
+    <t>0.051456 s</t>
+  </si>
+  <si>
+    <t>0.057132 s</t>
+  </si>
+  <si>
+    <t>0.22 s</t>
+  </si>
+  <si>
+    <t>1.88 s</t>
+  </si>
+  <si>
+    <t>2.21506 s</t>
+  </si>
+  <si>
+    <t>0.115217 s</t>
+  </si>
+  <si>
+    <t>0.188793 s</t>
+  </si>
+  <si>
+    <t>0.45 s</t>
+  </si>
+  <si>
+    <t>11.21 s</t>
+  </si>
+  <si>
+    <t>38.3213 s</t>
+  </si>
+  <si>
+    <t>0.295822 s</t>
+  </si>
+  <si>
+    <t>1.23657 s</t>
+  </si>
+  <si>
+    <t>1.12 s</t>
+  </si>
+  <si>
+    <t>68.59 s</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>0.977023 s</t>
+  </si>
+  <si>
+    <t>11.3697 s</t>
+  </si>
+  <si>
+    <t>1.72 s</t>
+  </si>
+  <si>
+    <t>315.38 s</t>
+  </si>
+  <si>
+    <t>6.47169 s</t>
+  </si>
+  <si>
+    <t>321.434 s</t>
+  </si>
+  <si>
+    <t>2.98 s</t>
+  </si>
+  <si>
+    <t>68.0352 s</t>
+  </si>
+  <si>
+    <t>4.52 s</t>
+  </si>
+  <si>
+    <t>0.005881 s</t>
+  </si>
+  <si>
+    <t>0.007127 s</t>
+  </si>
+  <si>
+    <t>0.007806 s</t>
+  </si>
+  <si>
+    <t>0.00907 s</t>
+  </si>
+  <si>
+    <t>0.011115 s</t>
+  </si>
+  <si>
+    <t>0.012829 s</t>
+  </si>
+  <si>
+    <t>0.038381 s</t>
+  </si>
+  <si>
+    <t>0.0214 s</t>
+  </si>
+  <si>
+    <t>0.023696 s</t>
+  </si>
+  <si>
+    <t>0.219125 s</t>
+  </si>
+  <si>
+    <t>0.05164 s</t>
+  </si>
+  <si>
+    <t>0.057611 s</t>
+  </si>
+  <si>
+    <t>1.90169 s</t>
+  </si>
+  <si>
+    <t>0.105155 s</t>
+  </si>
+  <si>
+    <t>0.180023 s</t>
+  </si>
+  <si>
+    <t>30.851 s</t>
+  </si>
+  <si>
+    <t>0.268708 s</t>
+  </si>
+  <si>
+    <t>0.906494 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.972369 s</t>
+  </si>
+  <si>
+    <t>9.86359 s</t>
+  </si>
+  <si>
+    <t>5.65683 s</t>
+  </si>
+  <si>
+    <t>297.175 s</t>
+  </si>
+  <si>
+    <t>59.7934 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.026 </t>
+  </si>
+  <si>
+    <t>0.137</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.058</t>
+  </si>
+  <si>
+    <t>1.424</t>
+  </si>
+  <si>
+    <t>0.105</t>
+  </si>
+  <si>
+    <t>31.490</t>
+  </si>
+  <si>
+    <t>ERODE : kappa .net without symmetries reduce forward/backward method in ERODE</t>
+  </si>
+  <si>
+    <t>0.380</t>
+  </si>
+  <si>
+    <t>175.374</t>
+  </si>
+  <si>
+    <t>erode-out</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x: do not have .net file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erode-out: erode shutdown </t>
+  </si>
+  <si>
+    <t>timeout: more than 10 m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -203,7 +364,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -226,19 +387,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -518,14 +732,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F14"/>
+  <dimension ref="A4:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
@@ -533,206 +748,604 @@
     <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G21" s="9"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="F23" s="8"/>
+      <c r="G23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
+  <mergeCells count="6">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
